--- a/biology/Botanique/Campanula_jacobaea/Campanula_jacobaea.xlsx
+++ b/biology/Botanique/Campanula_jacobaea/Campanula_jacobaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula jacobea est une espèce de plantes à fleurs de la famille des Campanulaceae. Elle est endémique du Cap-Vert.
-Localement elle est connue sous le nom de « contra-bruxa-azul » (bleue), par opposition à l'autre espèce, Campanula bravensis ou « contra-bruxa-branca » (blanche)[1].
-Elle joue un rôle important en médecine traditionnelle[1].
+Localement elle est connue sous le nom de « contra-bruxa-azul » (bleue), par opposition à l'autre espèce, Campanula bravensis ou « contra-bruxa-branca » (blanche).
+Elle joue un rôle important en médecine traditionnelle.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente les îles de Santo Antão, São Vicente, São Nicolau et Santiago. On la trouve entre 600 m et 1 000 m[1],[2]. 
-C'est une espèce mésophyte qui est présente dans les zones sub-humides et humides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente les îles de Santo Antão, São Vicente, São Nicolau et Santiago. On la trouve entre 600 m et 1 000 m,. 
+C'est une espèce mésophyte qui est présente dans les zones sub-humides et humides.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Numismatique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campanula jacobaea figure sur l'avers de la pièce de 5 escudos frappée par la République du Cap-Vert en 1994[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campanula jacobaea figure sur l'avers de la pièce de 5 escudos frappée par la République du Cap-Vert en 1994.
 </t>
         </is>
       </c>
